--- a/backend/nodejsbasic/src/test/themSVTest1.xlsx
+++ b/backend/nodejsbasic/src/test/themSVTest1.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1256,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>37265</v>
+        <v>36579</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
